--- a/BufferAndTimeTest.xlsx
+++ b/BufferAndTimeTest.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="46" uniqueCount="19">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="64" uniqueCount="23">
   <si>
     <t>client</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -30,26 +30,10 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>HMI2010...7z  (170,213KB)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>GDSMap.bmp  (1,091KB)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>DailyBuild_2.1.7z  (1,366,179KB)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>Buffer</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>Average</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>Can't Login</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -91,6 +75,38 @@
   </si>
   <si>
     <t>NORMAL</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Average(ms)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Speed Rate(kb/ms)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>First time(ms)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Second time(ms)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Third time(ms)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>GDSMap.bmp(kb)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>DailyBuild_2.1.7z(kb)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>HMI2010….7z(kb)</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -98,11 +114,12 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="2">
-    <numFmt numFmtId="177" formatCode="#,##0_ "/>
-    <numFmt numFmtId="178" formatCode="0.0000_);[Red]\(0.0000\)"/>
+  <numFmts count="3">
+    <numFmt numFmtId="176" formatCode="#,##0_ "/>
+    <numFmt numFmtId="177" formatCode="0.0000_);[Red]\(0.0000\)"/>
+    <numFmt numFmtId="178" formatCode="0_);[Red]\(0\)"/>
   </numFmts>
-  <fonts count="5">
+  <fonts count="6">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -145,6 +162,15 @@
       <charset val="136"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color theme="8" tint="-0.249977111117893"/>
+      <name val="新細明體"/>
+      <family val="1"/>
+      <charset val="136"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -168,7 +194,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="16">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -178,26 +204,41 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="176" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
     <xf numFmtId="177" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="177" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="177" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="177" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="177" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="178" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="178" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
     </xf>
     <xf numFmtId="178" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1">
       <alignment vertical="center"/>
@@ -496,10 +537,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:J31"/>
+  <dimension ref="A1:J33"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H32" sqref="H32"/>
+      <selection activeCell="B27" sqref="B27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
@@ -537,7 +578,7 @@
     </row>
     <row r="2" spans="1:10">
       <c r="A2" s="1" t="s">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="B2" s="3">
         <v>300000</v>
@@ -592,7 +633,7 @@
     </row>
     <row r="5" spans="1:10">
       <c r="A5" s="4" t="s">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="B5" s="3">
         <v>2000</v>
@@ -622,7 +663,7 @@
     </row>
     <row r="6" spans="1:10">
       <c r="A6" s="4" t="s">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="B6" s="3">
         <v>2000</v>
@@ -652,7 +693,7 @@
     </row>
     <row r="7" spans="1:10">
       <c r="A7" s="4" t="s">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="B7" s="3">
         <v>2000</v>
@@ -696,7 +737,7 @@
     </row>
     <row r="9" spans="1:10">
       <c r="A9" s="4" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="B9" s="3">
         <v>500000</v>
@@ -726,7 +767,7 @@
     </row>
     <row r="10" spans="1:10">
       <c r="A10" s="4" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="B10" s="3">
         <v>500000</v>
@@ -756,7 +797,7 @@
     </row>
     <row r="11" spans="1:10">
       <c r="A11" s="4" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="B11" s="3">
         <v>500000</v>
@@ -800,7 +841,10 @@
     </row>
     <row r="13" spans="1:10">
       <c r="A13" s="4" t="s">
-        <v>4</v>
+        <v>20</v>
+      </c>
+      <c r="B13" s="1">
+        <v>1091</v>
       </c>
       <c r="E13" s="4"/>
       <c r="F13" s="4"/>
@@ -810,11 +854,11 @@
       <c r="J13" s="4"/>
     </row>
     <row r="14" spans="1:10">
-      <c r="A14" s="4">
-        <v>1</v>
+      <c r="A14" s="4" t="s">
+        <v>17</v>
       </c>
       <c r="B14" s="8">
-        <v>62.684199999999997</v>
+        <v>54.684199999999997</v>
       </c>
       <c r="C14" s="8">
         <v>53.448900000000002</v>
@@ -823,13 +867,13 @@
         <v>57.902200000000001</v>
       </c>
       <c r="E14" s="8" t="s">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="F14" s="8">
         <v>56.216200000000001</v>
       </c>
       <c r="G14" s="8" t="s">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="H14" s="8">
         <v>82.181799999999996</v>
@@ -840,8 +884,8 @@
       <c r="J14" s="4"/>
     </row>
     <row r="15" spans="1:10">
-      <c r="A15" s="1">
-        <v>2</v>
+      <c r="A15" s="4" t="s">
+        <v>18</v>
       </c>
       <c r="B15" s="8">
         <v>24.863800000000001</v>
@@ -853,13 +897,13 @@
         <v>19.1037</v>
       </c>
       <c r="E15" s="8" t="s">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="F15" s="8">
         <v>26.923500000000001</v>
       </c>
       <c r="G15" s="8" t="s">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="H15" s="8">
         <v>44.407600000000002</v>
@@ -870,8 +914,8 @@
       <c r="J15" s="4"/>
     </row>
     <row r="16" spans="1:10">
-      <c r="A16" s="1">
-        <v>3</v>
+      <c r="A16" s="4" t="s">
+        <v>19</v>
       </c>
       <c r="B16" s="8">
         <v>19.565100000000001</v>
@@ -883,13 +927,13 @@
         <v>23.148099999999999</v>
       </c>
       <c r="E16" s="8" t="s">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="F16" s="8">
         <v>23.7849</v>
       </c>
       <c r="G16" s="8" t="s">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="H16" s="8">
         <v>42.682099999999998</v>
@@ -901,11 +945,11 @@
     </row>
     <row r="17" spans="1:9">
       <c r="A17" s="7" t="s">
-        <v>7</v>
+        <v>15</v>
       </c>
       <c r="B17" s="9">
         <f>AVERAGE(B14:B16)</f>
-        <v>35.704366666666665</v>
+        <v>33.037700000000001</v>
       </c>
       <c r="C17" s="9">
         <f t="shared" ref="C17:I17" si="0">AVERAGE(C14:C16)</f>
@@ -916,14 +960,14 @@
         <v>33.384666666666668</v>
       </c>
       <c r="E17" s="9" t="s">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="F17" s="9">
         <f t="shared" si="0"/>
         <v>35.641533333333335</v>
       </c>
       <c r="G17" s="9" t="s">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="H17" s="9">
         <f t="shared" si="0"/>
@@ -935,311 +979,405 @@
       </c>
     </row>
     <row r="18" spans="1:9">
-      <c r="B18" s="10"/>
-      <c r="C18" s="10"/>
-      <c r="D18" s="10"/>
-      <c r="E18" s="10"/>
-      <c r="F18" s="10"/>
-      <c r="G18" s="8"/>
-      <c r="H18" s="8" t="s">
+      <c r="A18" s="11" t="s">
         <v>16</v>
       </c>
-      <c r="I18" s="8" t="s">
+      <c r="B18" s="12">
+        <f>B13/B17</f>
+        <v>33.022879922028473</v>
+      </c>
+      <c r="C18" s="12">
+        <f>B13/C17</f>
+        <v>32.686983929149235</v>
+      </c>
+      <c r="D18" s="12">
+        <f>$B13/D17</f>
+        <v>32.679673303113205</v>
+      </c>
+      <c r="E18" s="13" t="s">
+        <v>5</v>
+      </c>
+      <c r="F18" s="12">
+        <f t="shared" ref="E18:I18" si="1">$B13/F17</f>
+        <v>30.610355334506746</v>
+      </c>
+      <c r="G18" s="13" t="s">
+        <v>4</v>
+      </c>
+      <c r="H18" s="12">
+        <f t="shared" si="1"/>
+        <v>19.335800769769275</v>
+      </c>
+      <c r="I18" s="12">
+        <f t="shared" si="1"/>
+        <v>2.9950344470139698</v>
+      </c>
+    </row>
+    <row r="19" spans="1:9">
+      <c r="H19" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="I19" s="8" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="20" spans="1:9">
+      <c r="A20" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="B20" s="15">
+        <v>170213</v>
+      </c>
+      <c r="C20" s="10"/>
+      <c r="D20" s="10"/>
+      <c r="E20" s="10"/>
+      <c r="F20" s="10"/>
+      <c r="G20" s="8"/>
+      <c r="H20" s="8"/>
+    </row>
+    <row r="21" spans="1:9">
+      <c r="A21" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="B21" s="8">
+        <v>2129.8474000000001</v>
+      </c>
+      <c r="C21" s="8">
+        <v>2026.1669999999999</v>
+      </c>
+      <c r="D21" s="8">
+        <v>1882.8981000000001</v>
+      </c>
+      <c r="E21" s="8" t="s">
+        <v>5</v>
+      </c>
+      <c r="F21" s="8">
+        <v>2080.6404000000002</v>
+      </c>
+      <c r="G21" s="8" t="s">
+        <v>4</v>
+      </c>
+      <c r="H21" s="8">
+        <v>1124.4879000000001</v>
+      </c>
+      <c r="I21" s="1">
+        <v>1985.4249</v>
+      </c>
+    </row>
+    <row r="22" spans="1:9">
+      <c r="A22" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="B22" s="8">
+        <v>2037.8547000000001</v>
+      </c>
+      <c r="C22" s="8">
+        <v>2085.8932</v>
+      </c>
+      <c r="D22" s="8">
+        <v>2289.3323999999998</v>
+      </c>
+      <c r="E22" s="8" t="s">
+        <v>5</v>
+      </c>
+      <c r="F22" s="8">
+        <v>1979.8690999999999</v>
+      </c>
+      <c r="G22" s="8" t="s">
+        <v>4</v>
+      </c>
+      <c r="H22" s="8">
+        <v>1079.9893</v>
+      </c>
+      <c r="I22" s="1">
+        <v>1886.6469999999999</v>
+      </c>
+    </row>
+    <row r="23" spans="1:9">
+      <c r="A23" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="B23" s="8">
+        <v>2048.8842</v>
+      </c>
+      <c r="C23" s="8">
+        <v>2076.1487000000002</v>
+      </c>
+      <c r="D23" s="8">
+        <v>1918.6038000000001</v>
+      </c>
+      <c r="E23" s="8" t="s">
+        <v>5</v>
+      </c>
+      <c r="F23" s="8">
+        <v>2005.5388</v>
+      </c>
+      <c r="G23" s="8" t="s">
+        <v>4</v>
+      </c>
+      <c r="H23" s="8">
+        <v>1117.8551</v>
+      </c>
+      <c r="I23" s="1">
+        <v>2038.2793999999999</v>
+      </c>
+    </row>
+    <row r="24" spans="1:9">
+      <c r="A24" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="B24" s="9">
+        <f>AVERAGE(B21:B23)</f>
+        <v>2072.1954333333338</v>
+      </c>
+      <c r="C24" s="9">
+        <f t="shared" ref="C24:F24" si="2">AVERAGE(C21:C23)</f>
+        <v>2062.7363</v>
+      </c>
+      <c r="D24" s="9">
+        <f t="shared" si="2"/>
+        <v>2030.2780999999998</v>
+      </c>
+      <c r="E24" s="9" t="s">
+        <v>5</v>
+      </c>
+      <c r="F24" s="9">
+        <f t="shared" si="2"/>
+        <v>2022.0161000000001</v>
+      </c>
+      <c r="G24" s="9" t="s">
+        <v>4</v>
+      </c>
+      <c r="H24" s="9">
+        <f t="shared" ref="H24:I24" si="3">AVERAGE(H21:H23)</f>
+        <v>1107.4440999999999</v>
+      </c>
+      <c r="I24" s="9">
+        <f t="shared" si="3"/>
+        <v>1970.1171000000002</v>
+      </c>
+    </row>
+    <row r="25" spans="1:9">
+      <c r="A25" s="11" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="19" spans="1:9">
-      <c r="A19" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="B19" s="10"/>
-      <c r="C19" s="10"/>
-      <c r="D19" s="10"/>
-      <c r="E19" s="10"/>
-      <c r="F19" s="10"/>
-      <c r="G19" s="8"/>
-      <c r="H19" s="8"/>
-    </row>
-    <row r="20" spans="1:9">
-      <c r="A20" s="4">
-        <v>1</v>
-      </c>
-      <c r="B20" s="8">
-        <v>2129.8474000000001</v>
-      </c>
-      <c r="C20" s="8">
-        <v>2026.1669999999999</v>
-      </c>
-      <c r="D20" s="8">
-        <v>1882.8981000000001</v>
-      </c>
-      <c r="E20" s="8" t="s">
-        <v>9</v>
-      </c>
-      <c r="F20" s="8">
-        <v>2080.6404000000002</v>
-      </c>
-      <c r="G20" s="8" t="s">
-        <v>8</v>
-      </c>
-      <c r="H20" s="8">
-        <v>1124.4879000000001</v>
-      </c>
-      <c r="I20" s="1">
-        <v>1985.4249</v>
-      </c>
-    </row>
-    <row r="21" spans="1:9">
-      <c r="A21" s="4">
-        <v>2</v>
-      </c>
-      <c r="B21" s="8">
-        <v>2037.8547000000001</v>
-      </c>
-      <c r="C21" s="8">
-        <v>2085.8932</v>
-      </c>
-      <c r="D21" s="8">
-        <v>2289.3323999999998</v>
-      </c>
-      <c r="E21" s="8" t="s">
-        <v>9</v>
-      </c>
-      <c r="F21" s="8">
-        <v>1979.8690999999999</v>
-      </c>
-      <c r="G21" s="8" t="s">
-        <v>8</v>
-      </c>
-      <c r="H21" s="8">
-        <v>1079.9893</v>
-      </c>
-      <c r="I21" s="1">
-        <v>1886.6469999999999</v>
-      </c>
-    </row>
-    <row r="22" spans="1:9">
-      <c r="A22" s="4">
-        <v>3</v>
-      </c>
-      <c r="B22" s="8">
-        <v>2048.8842</v>
-      </c>
-      <c r="C22" s="8">
-        <v>2076.1487000000002</v>
-      </c>
-      <c r="D22" s="8">
-        <v>1918.6038000000001</v>
-      </c>
-      <c r="E22" s="8" t="s">
-        <v>9</v>
-      </c>
-      <c r="F22" s="8">
-        <v>2005.5388</v>
-      </c>
-      <c r="G22" s="8" t="s">
-        <v>8</v>
-      </c>
-      <c r="H22" s="8">
-        <v>1117.8551</v>
-      </c>
-      <c r="I22" s="1">
-        <v>2038.2793999999999</v>
-      </c>
-    </row>
-    <row r="23" spans="1:9">
-      <c r="A23" s="7" t="s">
-        <v>7</v>
-      </c>
-      <c r="B23" s="9">
-        <f>AVERAGE(B20:B22)</f>
-        <v>2072.1954333333338</v>
-      </c>
-      <c r="C23" s="9">
-        <f t="shared" ref="C23:H23" si="1">AVERAGE(C20:C22)</f>
-        <v>2062.7363</v>
-      </c>
-      <c r="D23" s="9">
-        <f t="shared" si="1"/>
-        <v>2030.2780999999998</v>
-      </c>
-      <c r="E23" s="9" t="s">
-        <v>9</v>
-      </c>
-      <c r="F23" s="9">
-        <f t="shared" si="1"/>
-        <v>2022.0161000000001</v>
-      </c>
-      <c r="G23" s="9" t="s">
-        <v>8</v>
-      </c>
-      <c r="H23" s="9">
-        <f t="shared" ref="H23:I23" si="2">AVERAGE(H20:H22)</f>
-        <v>1107.4440999999999</v>
-      </c>
-      <c r="I23" s="9">
-        <f t="shared" si="2"/>
-        <v>1970.1171000000002</v>
-      </c>
-    </row>
-    <row r="24" spans="1:9">
-      <c r="A24" s="4"/>
-      <c r="B24" s="10"/>
-      <c r="C24" s="10"/>
-      <c r="D24" s="10"/>
-      <c r="E24" s="8"/>
-      <c r="G24" s="8"/>
-      <c r="H24" s="8" t="s">
+      <c r="B25" s="12">
+        <f>$B20/B24</f>
+        <v>82.141383607913539</v>
+      </c>
+      <c r="C25" s="12">
+        <f t="shared" ref="C25:I25" si="4">$B20/C24</f>
+        <v>82.518061082262435</v>
+      </c>
+      <c r="D25" s="12">
+        <f t="shared" si="4"/>
+        <v>83.837283178102552</v>
+      </c>
+      <c r="E25" s="13" t="s">
+        <v>5</v>
+      </c>
+      <c r="F25" s="12">
+        <f t="shared" si="4"/>
+        <v>84.179844067512619</v>
+      </c>
+      <c r="G25" s="13" t="s">
+        <v>4</v>
+      </c>
+      <c r="H25" s="12">
+        <f t="shared" si="4"/>
+        <v>153.69895419552103</v>
+      </c>
+      <c r="I25" s="12">
+        <f t="shared" si="4"/>
+        <v>86.397402469122255</v>
+      </c>
+    </row>
+    <row r="26" spans="1:9">
+      <c r="H26" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="I26" s="4" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="27" spans="1:9">
+      <c r="A27" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="B27" s="15">
+        <v>1366179</v>
+      </c>
+      <c r="C27" s="10"/>
+      <c r="D27" s="10"/>
+      <c r="E27" s="10"/>
+      <c r="F27" s="10"/>
+      <c r="G27" s="8"/>
+      <c r="H27" s="8"/>
+    </row>
+    <row r="28" spans="1:9">
+      <c r="A28" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="I24" s="4" t="s">
+      <c r="B28" s="8">
+        <v>16327.9776</v>
+      </c>
+      <c r="C28" s="8">
+        <v>16129.751399999999</v>
+      </c>
+      <c r="D28" s="8">
+        <v>16572.532200000001</v>
+      </c>
+      <c r="E28" s="8" t="s">
+        <v>5</v>
+      </c>
+      <c r="F28" s="8">
+        <v>16457.764599999999</v>
+      </c>
+      <c r="G28" s="8" t="s">
+        <v>4</v>
+      </c>
+      <c r="H28" s="8">
+        <v>8953.4879000000001</v>
+      </c>
+      <c r="I28" s="1">
+        <v>17109.462100000001</v>
+      </c>
+    </row>
+    <row r="29" spans="1:9">
+      <c r="A29" s="4" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="25" spans="1:9">
-      <c r="A25" s="4" t="s">
-        <v>5</v>
-      </c>
-      <c r="B25" s="10"/>
-      <c r="C25" s="10"/>
-      <c r="D25" s="10"/>
-      <c r="E25" s="10"/>
-      <c r="F25" s="10"/>
-      <c r="G25" s="8"/>
-      <c r="H25" s="8"/>
-    </row>
-    <row r="26" spans="1:9">
-      <c r="A26" s="4">
-        <v>1</v>
-      </c>
-      <c r="B26" s="8">
-        <v>16327.9776</v>
-      </c>
-      <c r="C26" s="8">
-        <v>16129.751399999999</v>
-      </c>
-      <c r="D26" s="8">
-        <v>16572.532200000001</v>
-      </c>
-      <c r="E26" s="8" t="s">
-        <v>9</v>
-      </c>
-      <c r="F26" s="8">
-        <v>16457.764599999999</v>
-      </c>
-      <c r="G26" s="8" t="s">
-        <v>8</v>
-      </c>
-      <c r="H26" s="8">
-        <v>8953.4879000000001</v>
-      </c>
-      <c r="I26" s="1">
-        <v>17109.462100000001</v>
-      </c>
-    </row>
-    <row r="27" spans="1:9">
-      <c r="A27" s="4">
-        <v>2</v>
-      </c>
-      <c r="B27" s="8">
-        <v>17403.341799999998</v>
-      </c>
-      <c r="C27" s="8">
+      <c r="B29" s="8">
+        <v>16403.341799999998</v>
+      </c>
+      <c r="C29" s="8">
         <v>15717.296700000001</v>
       </c>
-      <c r="D27" s="8">
+      <c r="D29" s="8">
         <v>16038.2857</v>
       </c>
-      <c r="E27" s="8" t="s">
-        <v>9</v>
-      </c>
-      <c r="F27" s="8">
+      <c r="E29" s="8" t="s">
+        <v>5</v>
+      </c>
+      <c r="F29" s="8">
         <v>16103.728499999999</v>
       </c>
-      <c r="G27" s="8" t="s">
-        <v>8</v>
-      </c>
-      <c r="H27" s="8">
+      <c r="G29" s="8" t="s">
+        <v>4</v>
+      </c>
+      <c r="H29" s="8">
         <v>9053.1936999999998</v>
       </c>
-      <c r="I27" s="1">
+      <c r="I29" s="1">
         <v>22783.120699999999</v>
       </c>
     </row>
-    <row r="28" spans="1:9">
-      <c r="A28" s="4">
-        <v>3</v>
-      </c>
-      <c r="B28" s="8">
+    <row r="30" spans="1:9">
+      <c r="A30" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="B30" s="8">
         <v>17651.131000000001</v>
       </c>
-      <c r="C28" s="8">
+      <c r="C30" s="8">
         <v>15577.221299999999</v>
       </c>
-      <c r="D28" s="8">
+      <c r="D30" s="8">
         <v>16071.082399999999</v>
       </c>
-      <c r="E28" s="8" t="s">
-        <v>9</v>
-      </c>
-      <c r="F28" s="8">
+      <c r="E30" s="8" t="s">
+        <v>5</v>
+      </c>
+      <c r="F30" s="8">
         <v>15421.3549</v>
       </c>
-      <c r="G28" s="8" t="s">
-        <v>8</v>
-      </c>
-      <c r="H28" s="8">
+      <c r="G30" s="8" t="s">
+        <v>4</v>
+      </c>
+      <c r="H30" s="8">
         <v>9134.2741999999998</v>
       </c>
-      <c r="I28" s="1">
+      <c r="I30" s="1">
         <v>24866.346300000001</v>
       </c>
     </row>
-    <row r="29" spans="1:9">
-      <c r="A29" s="7" t="s">
-        <v>7</v>
-      </c>
-      <c r="B29" s="9">
-        <f>AVERAGE(B26:B28)</f>
-        <v>17127.483466666668</v>
-      </c>
-      <c r="C29" s="9">
-        <f t="shared" ref="C29:I29" si="3">AVERAGE(C26:C28)</f>
+    <row r="31" spans="1:9">
+      <c r="A31" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="B31" s="9">
+        <f>AVERAGE(B28:B30)</f>
+        <v>16794.150133333333</v>
+      </c>
+      <c r="C31" s="9">
+        <f t="shared" ref="C31:I31" si="5">AVERAGE(C28:C30)</f>
         <v>15808.0898</v>
       </c>
-      <c r="D29" s="9">
-        <f t="shared" si="3"/>
+      <c r="D31" s="9">
+        <f t="shared" si="5"/>
         <v>16227.3001</v>
       </c>
-      <c r="E29" s="9" t="s">
-        <v>9</v>
-      </c>
-      <c r="F29" s="9">
-        <f t="shared" si="3"/>
+      <c r="E31" s="9" t="s">
+        <v>5</v>
+      </c>
+      <c r="F31" s="9">
+        <f t="shared" si="5"/>
         <v>15994.282666666666</v>
       </c>
-      <c r="G29" s="9" t="s">
-        <v>8</v>
-      </c>
-      <c r="H29" s="9">
-        <f t="shared" si="3"/>
+      <c r="G31" s="9" t="s">
+        <v>4</v>
+      </c>
+      <c r="H31" s="9">
+        <f t="shared" si="5"/>
         <v>9046.9852666666666</v>
       </c>
-      <c r="I29" s="9">
-        <f t="shared" si="3"/>
+      <c r="I31" s="9">
+        <f t="shared" si="5"/>
         <v>21586.309700000002</v>
       </c>
     </row>
-    <row r="30" spans="1:9">
-      <c r="H30" s="4" t="s">
-        <v>17</v>
-      </c>
-      <c r="I30" s="8" t="s">
+    <row r="32" spans="1:9">
+      <c r="A32" s="11" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="31" spans="1:9">
-      <c r="G31" s="4"/>
+      <c r="B32" s="14">
+        <f>$B27/B31</f>
+        <v>81.348504637241703</v>
+      </c>
+      <c r="C32" s="14">
+        <f t="shared" ref="C32:I32" si="6">$B27/C31</f>
+        <v>86.422775761306724</v>
+      </c>
+      <c r="D32" s="14">
+        <f t="shared" si="6"/>
+        <v>84.190160506121401</v>
+      </c>
+      <c r="E32" s="13" t="s">
+        <v>5</v>
+      </c>
+      <c r="F32" s="14">
+        <f t="shared" si="6"/>
+        <v>85.416709737612905</v>
+      </c>
+      <c r="G32" s="13" t="s">
+        <v>4</v>
+      </c>
+      <c r="H32" s="14">
+        <f t="shared" si="6"/>
+        <v>151.00930970161338</v>
+      </c>
+      <c r="I32" s="14">
+        <f t="shared" si="6"/>
+        <v>63.289141080005905</v>
+      </c>
+    </row>
+    <row r="33" spans="8:9">
+      <c r="H33" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="I33" s="8" t="s">
+        <v>12</v>
+      </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>

--- a/BufferAndTimeTest.xlsx
+++ b/BufferAndTimeTest.xlsx
@@ -4,11 +4,11 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4506"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="360" yWindow="120" windowWidth="28035" windowHeight="12330"/>
+    <workbookView xWindow="360" yWindow="120" windowWidth="28035" windowHeight="12330" activeTab="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
-    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
+    <sheet name="Upload" sheetId="1" r:id="rId1"/>
+    <sheet name="Download" sheetId="2" r:id="rId2"/>
     <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="125725"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="64" uniqueCount="23">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="134" uniqueCount="30">
   <si>
     <t>client</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -107,6 +107,33 @@
   </si>
   <si>
     <t>HMI2010….7z(kb)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Upload</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Download</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>The socket connection was aborted. This could be caused by an error processing your message or a receive timeout being exceeded by the remote host, or an underlying network resource issue. Local socket timeout was '00:09:59.9830000'.</t>
+  </si>
+  <si>
+    <t>Size</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>SLOW</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>FAST</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>The server did not provide a meaningful reply; this might be caused by a contract mismatch, a premature session shutdown or an internal server error.</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -114,12 +141,13 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="3">
+  <numFmts count="4">
     <numFmt numFmtId="176" formatCode="#,##0_ "/>
     <numFmt numFmtId="177" formatCode="0.0000_);[Red]\(0.0000\)"/>
     <numFmt numFmtId="178" formatCode="0_);[Red]\(0\)"/>
+    <numFmt numFmtId="179" formatCode="#,##0_);[Red]\(#,##0\)"/>
   </numFmts>
-  <fonts count="6">
+  <fonts count="7">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -171,6 +199,14 @@
       <charset val="136"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <name val="新細明體"/>
+      <family val="1"/>
+      <charset val="136"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -194,7 +230,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="16">
+  <cellXfs count="20">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -241,6 +277,18 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="178" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="176" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="179" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -539,8 +587,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:J33"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B27" sqref="B27"/>
+    <sheetView topLeftCell="B28" workbookViewId="0">
+      <selection activeCell="B34" sqref="B34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
@@ -551,6 +599,9 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:10">
+      <c r="A1" s="2" t="s">
+        <v>23</v>
+      </c>
       <c r="B1" s="2">
         <v>1</v>
       </c>
@@ -580,41 +631,36 @@
       <c r="A2" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="B2" s="3">
+      <c r="J2" s="4"/>
+    </row>
+    <row r="3" spans="1:10">
+      <c r="A3" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="B3" s="3">
         <v>300000</v>
       </c>
-      <c r="C2" s="3">
+      <c r="C3" s="3">
         <v>300000</v>
       </c>
-      <c r="D2" s="3">
+      <c r="D3" s="3">
         <v>300000</v>
       </c>
-      <c r="E2" s="5">
+      <c r="E3" s="5">
         <v>300000</v>
       </c>
-      <c r="F2" s="3">
+      <c r="F3" s="3">
         <v>300000</v>
       </c>
-      <c r="G2" s="3">
+      <c r="G3" s="3">
         <v>300000</v>
       </c>
-      <c r="H2" s="3">
+      <c r="H3" s="3">
         <v>3000000</v>
       </c>
-      <c r="I2" s="3">
+      <c r="I3" s="3">
         <v>30000000</v>
       </c>
-      <c r="J2" s="4"/>
-    </row>
-    <row r="3" spans="1:10">
-      <c r="B3" s="3"/>
-      <c r="C3" s="3"/>
-      <c r="D3" s="3"/>
-      <c r="E3" s="3"/>
-      <c r="F3" s="3"/>
-      <c r="G3" s="3"/>
-      <c r="H3" s="4"/>
-      <c r="I3" s="4"/>
       <c r="J3" s="4"/>
     </row>
     <row r="4" spans="1:10">
@@ -998,7 +1044,7 @@
         <v>5</v>
       </c>
       <c r="F18" s="12">
-        <f t="shared" ref="E18:I18" si="1">$B13/F17</f>
+        <f t="shared" ref="F18:I18" si="1">$B13/F17</f>
         <v>30.610355334506746</v>
       </c>
       <c r="G18" s="13" t="s">
@@ -1388,14 +1434,803 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1"/>
+  <dimension ref="A1:J34"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
+      <selection activeCell="B34" sqref="B34"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
-  <sheetData/>
+  <cols>
+    <col min="1" max="1" width="30.625" style="1" customWidth="1"/>
+    <col min="2" max="23" width="20.625" style="1" customWidth="1"/>
+    <col min="24" max="16384" width="9" style="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:10">
+      <c r="A1" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="B1" s="2">
+        <v>1</v>
+      </c>
+      <c r="C1" s="2">
+        <v>2</v>
+      </c>
+      <c r="D1" s="2">
+        <v>3</v>
+      </c>
+      <c r="E1" s="2">
+        <v>4</v>
+      </c>
+      <c r="F1" s="2">
+        <v>5</v>
+      </c>
+      <c r="G1" s="2">
+        <v>6</v>
+      </c>
+      <c r="H1" s="2">
+        <v>7</v>
+      </c>
+      <c r="I1" s="2"/>
+    </row>
+    <row r="2" spans="1:10">
+      <c r="A2" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="J2" s="4"/>
+    </row>
+    <row r="3" spans="1:10">
+      <c r="A3" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="B3" s="3">
+        <v>300000</v>
+      </c>
+      <c r="C3" s="3">
+        <v>300000</v>
+      </c>
+      <c r="D3" s="3">
+        <v>300000</v>
+      </c>
+      <c r="E3" s="17">
+        <v>30000</v>
+      </c>
+      <c r="F3" s="17">
+        <v>30000</v>
+      </c>
+      <c r="G3" s="3">
+        <v>3000000</v>
+      </c>
+      <c r="H3" s="3">
+        <v>30000000</v>
+      </c>
+      <c r="I3" s="3"/>
+      <c r="J3" s="4"/>
+    </row>
+    <row r="4" spans="1:10">
+      <c r="A4" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B4" s="3"/>
+      <c r="C4" s="3"/>
+      <c r="D4" s="3"/>
+      <c r="E4" s="17"/>
+      <c r="F4" s="17"/>
+      <c r="G4" s="3"/>
+      <c r="H4" s="4"/>
+      <c r="I4" s="4"/>
+      <c r="J4" s="4"/>
+    </row>
+    <row r="5" spans="1:10">
+      <c r="A5" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="B5" s="3">
+        <v>500000</v>
+      </c>
+      <c r="C5" s="3">
+        <v>50000</v>
+      </c>
+      <c r="D5" s="3">
+        <v>500000</v>
+      </c>
+      <c r="E5" s="17">
+        <v>50000</v>
+      </c>
+      <c r="F5" s="17">
+        <v>500000</v>
+      </c>
+      <c r="G5" s="3">
+        <v>5000000</v>
+      </c>
+      <c r="H5" s="3">
+        <v>50000000</v>
+      </c>
+      <c r="I5" s="3"/>
+      <c r="J5" s="4"/>
+    </row>
+    <row r="6" spans="1:10">
+      <c r="A6" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="B6" s="3">
+        <v>500000</v>
+      </c>
+      <c r="C6" s="3">
+        <v>50000</v>
+      </c>
+      <c r="D6" s="3">
+        <v>500000</v>
+      </c>
+      <c r="E6" s="17">
+        <v>50000</v>
+      </c>
+      <c r="F6" s="17">
+        <v>500000</v>
+      </c>
+      <c r="G6" s="3">
+        <v>5000000</v>
+      </c>
+      <c r="H6" s="3">
+        <v>50000000</v>
+      </c>
+      <c r="I6" s="3"/>
+      <c r="J6" s="4"/>
+    </row>
+    <row r="7" spans="1:10">
+      <c r="A7" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="B7" s="3">
+        <v>500000</v>
+      </c>
+      <c r="C7" s="3">
+        <v>50000</v>
+      </c>
+      <c r="D7" s="3">
+        <v>500000</v>
+      </c>
+      <c r="E7" s="17">
+        <v>50000</v>
+      </c>
+      <c r="F7" s="17">
+        <v>500000</v>
+      </c>
+      <c r="G7" s="3">
+        <v>5000000</v>
+      </c>
+      <c r="H7" s="3">
+        <v>50000000</v>
+      </c>
+      <c r="I7" s="3"/>
+      <c r="J7" s="4"/>
+    </row>
+    <row r="8" spans="1:10">
+      <c r="A8" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B8" s="3"/>
+      <c r="C8" s="3"/>
+      <c r="D8" s="3"/>
+      <c r="E8" s="17"/>
+      <c r="F8" s="17"/>
+      <c r="G8" s="3"/>
+      <c r="H8" s="4"/>
+      <c r="I8" s="4"/>
+      <c r="J8" s="4"/>
+    </row>
+    <row r="9" spans="1:10">
+      <c r="A9" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="B9" s="3">
+        <v>500000</v>
+      </c>
+      <c r="C9" s="3">
+        <v>500000</v>
+      </c>
+      <c r="D9" s="3">
+        <v>50000</v>
+      </c>
+      <c r="E9" s="17">
+        <v>500000</v>
+      </c>
+      <c r="F9" s="17">
+        <v>50000</v>
+      </c>
+      <c r="G9" s="3">
+        <v>5000000</v>
+      </c>
+      <c r="H9" s="3">
+        <v>50000000</v>
+      </c>
+      <c r="I9" s="3"/>
+      <c r="J9" s="4"/>
+    </row>
+    <row r="10" spans="1:10">
+      <c r="A10" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="B10" s="3">
+        <v>500000</v>
+      </c>
+      <c r="C10" s="3">
+        <v>500000</v>
+      </c>
+      <c r="D10" s="3">
+        <v>50000</v>
+      </c>
+      <c r="E10" s="17">
+        <v>500000</v>
+      </c>
+      <c r="F10" s="17">
+        <v>50000</v>
+      </c>
+      <c r="G10" s="3">
+        <v>5000000</v>
+      </c>
+      <c r="H10" s="3">
+        <v>50000000</v>
+      </c>
+      <c r="I10" s="3"/>
+      <c r="J10" s="4"/>
+    </row>
+    <row r="11" spans="1:10">
+      <c r="A11" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="B11" s="3">
+        <v>500000</v>
+      </c>
+      <c r="C11" s="3">
+        <v>500000</v>
+      </c>
+      <c r="D11" s="3">
+        <v>50000</v>
+      </c>
+      <c r="E11" s="17">
+        <v>500000</v>
+      </c>
+      <c r="F11" s="17">
+        <v>50000</v>
+      </c>
+      <c r="G11" s="3">
+        <v>5000000</v>
+      </c>
+      <c r="H11" s="3">
+        <v>50000000</v>
+      </c>
+      <c r="I11" s="3"/>
+      <c r="J11" s="4"/>
+    </row>
+    <row r="12" spans="1:10">
+      <c r="A12" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="B12" s="4"/>
+      <c r="C12" s="4"/>
+      <c r="D12" s="4"/>
+      <c r="E12" s="4"/>
+      <c r="F12" s="4"/>
+      <c r="G12" s="4"/>
+      <c r="H12" s="4"/>
+      <c r="I12" s="4"/>
+      <c r="J12" s="4"/>
+    </row>
+    <row r="13" spans="1:10">
+      <c r="A13" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="B13" s="19">
+        <v>1091</v>
+      </c>
+      <c r="E13" s="4"/>
+      <c r="F13" s="4"/>
+      <c r="G13" s="4"/>
+      <c r="H13" s="4"/>
+      <c r="I13" s="4"/>
+      <c r="J13" s="4"/>
+    </row>
+    <row r="14" spans="1:10">
+      <c r="A14" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="B14" s="8">
+        <v>52.061500000000002</v>
+      </c>
+      <c r="C14" s="8" t="s">
+        <v>5</v>
+      </c>
+      <c r="D14" s="8" t="s">
+        <v>5</v>
+      </c>
+      <c r="E14" s="8">
+        <v>79.050700000000006</v>
+      </c>
+      <c r="F14" s="8">
+        <v>67.201099999999997</v>
+      </c>
+      <c r="G14" s="8">
+        <v>46.485599999999998</v>
+      </c>
+      <c r="H14" s="8">
+        <v>348.80849999999998</v>
+      </c>
+      <c r="I14" s="4"/>
+      <c r="J14" s="4"/>
+    </row>
+    <row r="15" spans="1:10">
+      <c r="A15" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="B15" s="8">
+        <v>28.080200000000001</v>
+      </c>
+      <c r="C15" s="8" t="s">
+        <v>5</v>
+      </c>
+      <c r="D15" s="8" t="s">
+        <v>5</v>
+      </c>
+      <c r="E15" s="8">
+        <v>62.697200000000002</v>
+      </c>
+      <c r="F15" s="8">
+        <v>55.291400000000003</v>
+      </c>
+      <c r="G15" s="8">
+        <v>44.262300000000003</v>
+      </c>
+      <c r="H15" s="8">
+        <v>447.4631</v>
+      </c>
+      <c r="I15" s="4"/>
+      <c r="J15" s="4"/>
+    </row>
+    <row r="16" spans="1:10">
+      <c r="A16" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="B16" s="8">
+        <v>25.6005</v>
+      </c>
+      <c r="C16" s="8" t="s">
+        <v>5</v>
+      </c>
+      <c r="D16" s="8" t="s">
+        <v>5</v>
+      </c>
+      <c r="E16" s="8">
+        <v>56.703099999999999</v>
+      </c>
+      <c r="F16" s="8">
+        <v>61.878300000000003</v>
+      </c>
+      <c r="G16" s="8">
+        <v>40.599400000000003</v>
+      </c>
+      <c r="H16" s="8">
+        <v>492.6087</v>
+      </c>
+      <c r="I16" s="4"/>
+      <c r="J16" s="4"/>
+    </row>
+    <row r="17" spans="1:9">
+      <c r="A17" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="B17" s="9">
+        <f>AVERAGE(B14:B16)</f>
+        <v>35.247399999999999</v>
+      </c>
+      <c r="C17" s="9" t="s">
+        <v>5</v>
+      </c>
+      <c r="D17" s="9" t="s">
+        <v>5</v>
+      </c>
+      <c r="E17" s="9">
+        <f>AVERAGE(E14:E16)</f>
+        <v>66.150333333333336</v>
+      </c>
+      <c r="F17" s="9">
+        <f t="shared" ref="F17:H17" si="0">AVERAGE(F14:F16)</f>
+        <v>61.456933333333332</v>
+      </c>
+      <c r="G17" s="9">
+        <f t="shared" si="0"/>
+        <v>43.782433333333337</v>
+      </c>
+      <c r="H17" s="9">
+        <f t="shared" si="0"/>
+        <v>429.6267666666667</v>
+      </c>
+      <c r="I17" s="9"/>
+    </row>
+    <row r="18" spans="1:9">
+      <c r="A18" s="11" t="s">
+        <v>16</v>
+      </c>
+      <c r="B18" s="12">
+        <f>B13/B17</f>
+        <v>30.952637641357946</v>
+      </c>
+      <c r="C18" s="13" t="s">
+        <v>5</v>
+      </c>
+      <c r="D18" s="13" t="s">
+        <v>5</v>
+      </c>
+      <c r="E18" s="12">
+        <f>$B13/E17</f>
+        <v>16.492736242195807</v>
+      </c>
+      <c r="F18" s="12">
+        <f t="shared" ref="F18:H18" si="1">$B13/F17</f>
+        <v>17.752268797445151</v>
+      </c>
+      <c r="G18" s="12">
+        <f t="shared" si="1"/>
+        <v>24.918669816585492</v>
+      </c>
+      <c r="H18" s="12">
+        <f t="shared" si="1"/>
+        <v>2.5394134738501317</v>
+      </c>
+      <c r="I18" s="12"/>
+    </row>
+    <row r="19" spans="1:9">
+      <c r="G19" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="H19" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="I19" s="8"/>
+    </row>
+    <row r="20" spans="1:9">
+      <c r="A20" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="B20" s="18">
+        <v>170213</v>
+      </c>
+      <c r="C20" s="10"/>
+      <c r="D20" s="10"/>
+      <c r="E20" s="10"/>
+      <c r="F20" s="10"/>
+      <c r="G20" s="8"/>
+      <c r="H20" s="8"/>
+    </row>
+    <row r="21" spans="1:9">
+      <c r="A21" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="B21" s="8">
+        <v>3078.6880000000001</v>
+      </c>
+      <c r="C21" s="8" t="s">
+        <v>5</v>
+      </c>
+      <c r="D21" s="8" t="s">
+        <v>5</v>
+      </c>
+      <c r="E21" s="8">
+        <v>7429.4903999999997</v>
+      </c>
+      <c r="F21" s="8">
+        <v>7559.2543999999998</v>
+      </c>
+      <c r="G21" s="8">
+        <v>2178.2516999999998</v>
+      </c>
+      <c r="H21" s="8">
+        <v>2622.3775999999998</v>
+      </c>
+    </row>
+    <row r="22" spans="1:9">
+      <c r="A22" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="B22" s="8">
+        <v>3037.0563000000002</v>
+      </c>
+      <c r="C22" s="8" t="s">
+        <v>5</v>
+      </c>
+      <c r="D22" s="8" t="s">
+        <v>5</v>
+      </c>
+      <c r="E22" s="8">
+        <v>7074.6013999999996</v>
+      </c>
+      <c r="F22" s="8">
+        <v>7311.8386</v>
+      </c>
+      <c r="G22" s="8">
+        <v>2092.1392000000001</v>
+      </c>
+      <c r="H22" s="8">
+        <v>2698.8811999999998</v>
+      </c>
+    </row>
+    <row r="23" spans="1:9">
+      <c r="A23" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="B23" s="8">
+        <v>3231.8685999999998</v>
+      </c>
+      <c r="C23" s="8" t="s">
+        <v>5</v>
+      </c>
+      <c r="D23" s="8" t="s">
+        <v>5</v>
+      </c>
+      <c r="E23" s="8">
+        <v>7224.9483</v>
+      </c>
+      <c r="F23" s="8">
+        <v>7245.2312000000002</v>
+      </c>
+      <c r="G23" s="8">
+        <v>2108.6069000000002</v>
+      </c>
+      <c r="H23" s="8">
+        <v>2621.9454000000001</v>
+      </c>
+    </row>
+    <row r="24" spans="1:9">
+      <c r="A24" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="B24" s="9">
+        <f>AVERAGE(B21:B23)</f>
+        <v>3115.8709666666668</v>
+      </c>
+      <c r="C24" s="9" t="s">
+        <v>5</v>
+      </c>
+      <c r="D24" s="9" t="s">
+        <v>5</v>
+      </c>
+      <c r="E24" s="9">
+        <f>AVERAGE(E21:E23)</f>
+        <v>7243.0133666666661</v>
+      </c>
+      <c r="F24" s="9">
+        <f t="shared" ref="F24" si="2">AVERAGE(F21:F23)</f>
+        <v>7372.1080666666676</v>
+      </c>
+      <c r="G24" s="9">
+        <f t="shared" ref="G24" si="3">AVERAGE(G21:G23)</f>
+        <v>2126.3326000000002</v>
+      </c>
+      <c r="H24" s="9">
+        <f t="shared" ref="H24" si="4">AVERAGE(H21:H23)</f>
+        <v>2647.7347333333332</v>
+      </c>
+      <c r="I24" s="9"/>
+    </row>
+    <row r="25" spans="1:9">
+      <c r="A25" s="11" t="s">
+        <v>16</v>
+      </c>
+      <c r="B25" s="12">
+        <f>$B20/B24</f>
+        <v>54.627743517278084</v>
+      </c>
+      <c r="C25" s="13" t="s">
+        <v>5</v>
+      </c>
+      <c r="D25" s="13" t="s">
+        <v>5</v>
+      </c>
+      <c r="E25" s="12">
+        <f>$B20/E24</f>
+        <v>23.500301791978377</v>
+      </c>
+      <c r="F25" s="12">
+        <f t="shared" ref="F25:H25" si="5">$B20/F24</f>
+        <v>23.088782538284548</v>
+      </c>
+      <c r="G25" s="12">
+        <f t="shared" ref="G25" si="6">$B20/G24</f>
+        <v>80.050035446006888</v>
+      </c>
+      <c r="H25" s="12">
+        <f t="shared" si="5"/>
+        <v>64.286273793641115</v>
+      </c>
+      <c r="I25" s="12"/>
+    </row>
+    <row r="26" spans="1:9">
+      <c r="G26" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="H26" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="I26" s="4"/>
+    </row>
+    <row r="27" spans="1:9">
+      <c r="A27" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="B27" s="18">
+        <v>1366179</v>
+      </c>
+      <c r="C27" s="10"/>
+      <c r="D27" s="10"/>
+      <c r="E27" s="10"/>
+      <c r="F27" s="10"/>
+      <c r="G27" s="8"/>
+      <c r="H27" s="8"/>
+    </row>
+    <row r="28" spans="1:9">
+      <c r="A28" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="B28" s="8">
+        <v>24349.553100000001</v>
+      </c>
+      <c r="C28" s="8" t="s">
+        <v>5</v>
+      </c>
+      <c r="D28" s="8" t="s">
+        <v>5</v>
+      </c>
+      <c r="E28" s="8">
+        <v>56915.785199999998</v>
+      </c>
+      <c r="F28" s="8">
+        <v>57562.3105</v>
+      </c>
+      <c r="G28" s="8">
+        <v>15990.704299999999</v>
+      </c>
+      <c r="H28" s="8">
+        <v>24555.2124</v>
+      </c>
+    </row>
+    <row r="29" spans="1:9">
+      <c r="A29" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="B29" s="8">
+        <v>23989.637599999998</v>
+      </c>
+      <c r="C29" s="8" t="s">
+        <v>5</v>
+      </c>
+      <c r="D29" s="8" t="s">
+        <v>5</v>
+      </c>
+      <c r="E29" s="8">
+        <v>58136.499100000001</v>
+      </c>
+      <c r="F29" s="8">
+        <v>57591.797899999998</v>
+      </c>
+      <c r="G29" s="8">
+        <v>16090.805</v>
+      </c>
+      <c r="H29" s="8">
+        <v>28274.395499999999</v>
+      </c>
+    </row>
+    <row r="30" spans="1:9">
+      <c r="A30" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="B30" s="8">
+        <v>24430.742200000001</v>
+      </c>
+      <c r="C30" s="8" t="s">
+        <v>5</v>
+      </c>
+      <c r="D30" s="8" t="s">
+        <v>5</v>
+      </c>
+      <c r="E30" s="8">
+        <v>60115.349000000002</v>
+      </c>
+      <c r="F30" s="8">
+        <v>58048.167200000004</v>
+      </c>
+      <c r="G30" s="8">
+        <v>16270.3447</v>
+      </c>
+      <c r="H30" s="8">
+        <v>29601.039499999999</v>
+      </c>
+    </row>
+    <row r="31" spans="1:9">
+      <c r="A31" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="B31" s="9">
+        <f>AVERAGE(B28:B30)</f>
+        <v>24256.6443</v>
+      </c>
+      <c r="C31" s="9" t="s">
+        <v>5</v>
+      </c>
+      <c r="D31" s="9" t="s">
+        <v>5</v>
+      </c>
+      <c r="E31" s="9">
+        <f>AVERAGE(E28:E30)</f>
+        <v>58389.211099999993</v>
+      </c>
+      <c r="F31" s="9">
+        <f t="shared" ref="F31:H31" si="7">AVERAGE(F28:F30)</f>
+        <v>57734.091866666662</v>
+      </c>
+      <c r="G31" s="9">
+        <f t="shared" ref="G31" si="8">AVERAGE(G28:G30)</f>
+        <v>16117.284666666666</v>
+      </c>
+      <c r="H31" s="9">
+        <f t="shared" si="7"/>
+        <v>27476.882466666666</v>
+      </c>
+      <c r="I31" s="9"/>
+    </row>
+    <row r="32" spans="1:9">
+      <c r="A32" s="11" t="s">
+        <v>16</v>
+      </c>
+      <c r="B32" s="12">
+        <f>$B27/B31</f>
+        <v>56.321846629049183</v>
+      </c>
+      <c r="C32" s="13" t="s">
+        <v>5</v>
+      </c>
+      <c r="D32" s="13" t="s">
+        <v>5</v>
+      </c>
+      <c r="E32" s="12">
+        <f>$B27/E31</f>
+        <v>23.397798570359519</v>
+      </c>
+      <c r="F32" s="12">
+        <f t="shared" ref="F32:H32" si="9">$B27/F31</f>
+        <v>23.663297643186393</v>
+      </c>
+      <c r="G32" s="12">
+        <f t="shared" ref="G32" si="10">$B27/G31</f>
+        <v>84.764836525193019</v>
+      </c>
+      <c r="H32" s="12">
+        <f t="shared" si="9"/>
+        <v>49.721033732897752</v>
+      </c>
+      <c r="I32" s="12"/>
+    </row>
+    <row r="33" spans="3:9">
+      <c r="G33" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="H33" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="I33" s="8"/>
+    </row>
+    <row r="34" spans="3:9" ht="236.25" customHeight="1">
+      <c r="C34" s="16" t="s">
+        <v>29</v>
+      </c>
+      <c r="D34" s="16" t="s">
+        <v>25</v>
+      </c>
+    </row>
+  </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
